--- a/resources/actions/stimuli/stimuli.xlsx
+++ b/resources/actions/stimuli/stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\picture-naming\resources\actions\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-picture-naming\resources\actions\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38DACB-8AEE-4D9A-BDEE-EEC79E8FD51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDC807-D945-4032-9497-26729CA40005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="2844" windowWidth="17280" windowHeight="8880" xr2:uid="{C37A7FB8-9F08-4596-813A-61242B3CD22C}"/>
+    <workbookView xWindow="1128" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{C37A7FB8-9F08-4596-813A-61242B3CD22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
-  <si>
-    <t>task</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>condition</t>
   </si>
@@ -56,27 +53,15 @@
     <t>arreglar</t>
   </si>
   <si>
-    <t>picture naming</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>caja</t>
-  </si>
-  <si>
     <t>high_freq</t>
   </si>
   <si>
     <t>verb</t>
   </si>
   <si>
-    <t>buckle</t>
-  </si>
-  <si>
-    <t>hebilla</t>
-  </si>
-  <si>
     <t>low_freq</t>
   </si>
   <si>
@@ -110,12 +95,6 @@
     <t>llorar</t>
   </si>
   <si>
-    <t>curl</t>
-  </si>
-  <si>
-    <t>enroscar</t>
-  </si>
-  <si>
     <t>fix</t>
   </si>
   <si>
@@ -137,12 +116,6 @@
     <t>seguir</t>
   </si>
   <si>
-    <t>hide</t>
-  </si>
-  <si>
-    <t>ocultar</t>
-  </si>
-  <si>
     <t>jump</t>
   </si>
   <si>
@@ -152,15 +125,6 @@
     <t>kick</t>
   </si>
   <si>
-    <t>patada</t>
-  </si>
-  <si>
-    <t>kneel</t>
-  </si>
-  <si>
-    <t>arrodillarse</t>
-  </si>
-  <si>
     <t>knit</t>
   </si>
   <si>
@@ -179,12 +143,6 @@
     <t>reír</t>
   </si>
   <si>
-    <t>marry</t>
-  </si>
-  <si>
-    <t>casarse</t>
-  </si>
-  <si>
     <t>melt</t>
   </si>
   <si>
@@ -221,24 +179,9 @@
     <t>estornudar</t>
   </si>
   <si>
-    <t>swat</t>
-  </si>
-  <si>
-    <t>aplastar</t>
-  </si>
-  <si>
-    <t>wag</t>
-  </si>
-  <si>
-    <t>menear</t>
-  </si>
-  <si>
     <t>wink</t>
   </si>
   <si>
-    <t>guiño</t>
-  </si>
-  <si>
     <t>yawn</t>
   </si>
   <si>
@@ -251,9 +194,6 @@
     <t>resources/pictures/act022box.png</t>
   </si>
   <si>
-    <t>resources/pictures/act025buckle.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act031carry.png</t>
   </si>
   <si>
@@ -269,33 +209,21 @@
     <t>resources/pictures/act052cry.png</t>
   </si>
   <si>
-    <t>resources/pictures/act053curl.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act176fix.png</t>
   </si>
   <si>
-    <t>resources/pictures/act247tickle.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act090fly.png</t>
   </si>
   <si>
     <t>resources/pictures/act092follow.png</t>
   </si>
   <si>
-    <t>resources/pictures/act108hide.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act117jump.png</t>
   </si>
   <si>
     <t>resources/pictures/act118kick.png</t>
   </si>
   <si>
-    <t>resources/pictures/act120kneel.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act122knit.png</t>
   </si>
   <si>
@@ -305,12 +233,6 @@
     <t>resources/pictures/act125laugh.png</t>
   </si>
   <si>
-    <t>resources/pictures/act138marry.png</t>
-  </si>
-  <si>
-    <t>resources/pictures/act116juggle.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act147mop.png</t>
   </si>
   <si>
@@ -326,16 +248,88 @@
     <t>resources/pictures/act214sneeze.png</t>
   </si>
   <si>
-    <t>resources/pictures/act236swat.png</t>
-  </si>
-  <si>
-    <t>resources/pictures/act255wag.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act267wink.png</t>
   </si>
   <si>
     <t>resources/pictures/act273yawn.png</t>
+  </si>
+  <si>
+    <t>boxear</t>
+  </si>
+  <si>
+    <t>howl</t>
+  </si>
+  <si>
+    <t>aullar</t>
+  </si>
+  <si>
+    <t>resources/pictures/act111howl.png</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>pelar</t>
+  </si>
+  <si>
+    <t>resources/pictures/act153peel.png</t>
+  </si>
+  <si>
+    <t>resources/pictures/act088float.png</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>cantar</t>
+  </si>
+  <si>
+    <t>resources/pictures/act202sing.png</t>
+  </si>
+  <si>
+    <t>patear</t>
+  </si>
+  <si>
+    <t>boil</t>
+  </si>
+  <si>
+    <t>hervir</t>
+  </si>
+  <si>
+    <t>resources/pictures/act018boil.png</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>romper</t>
+  </si>
+  <si>
+    <t>resources/pictures/act023break.png</t>
+  </si>
+  <si>
+    <t>resources/pictures/act142melt.png</t>
+  </si>
+  <si>
+    <t>bark</t>
+  </si>
+  <si>
+    <t>ladrar</t>
+  </si>
+  <si>
+    <t>resources/pictures/act014bark.png</t>
+  </si>
+  <si>
+    <t>stir</t>
+  </si>
+  <si>
+    <t>revolver</t>
+  </si>
+  <si>
+    <t>resources/pictures/act230stir.png</t>
+  </si>
+  <si>
+    <t>guiñar</t>
   </si>
 </sst>
 </file>
@@ -733,549 +727,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4364C209-0A91-4EC2-9F7A-D0E718417FCF}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.5546875" style="2"/>
-    <col min="6" max="6" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="2"/>
+    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
